--- a/data/Invoices.xlsx
+++ b/data/Invoices.xlsx
@@ -397,13 +397,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>invoice_number</v>
+      </c>
+      <c r="C1" t="str">
+        <v>invoice_date</v>
+      </c>
+      <c r="D1" t="str">
+        <v>status</v>
+      </c>
+      <c r="E1" t="str">
+        <v>is_gst_invoice</v>
+      </c>
+      <c r="F1" t="str">
+        <v>subtotal</v>
+      </c>
+      <c r="G1" t="str">
+        <v>cgst_amount</v>
+      </c>
+      <c r="H1" t="str">
+        <v>sgst_amount</v>
+      </c>
+      <c r="I1" t="str">
+        <v>igst_amount</v>
+      </c>
+      <c r="J1" t="str">
+        <v>total_amount</v>
+      </c>
+      <c r="K1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="L1" t="str">
+        <v>terms</v>
+      </c>
+      <c r="M1" t="str">
+        <v>items</v>
+      </c>
+      <c r="N1" t="str">
+        <v>created_at</v>
+      </c>
+      <c r="O1" t="str">
+        <v>id</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>af892bfb-eb9d-40aa-b377-20bb463398bc</v>
+      </c>
+      <c r="B2" t="str">
+        <v>INV-1001</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-10-30</v>
+      </c>
+      <c r="D2" t="str">
+        <v>draft</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>99</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>119</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Test invoice</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Net 7</v>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v>2025-10-30T16:39:16.327Z</v>
+      </c>
+      <c r="O2" t="str">
+        <v>cec08352-98b6-45ac-9791-ef387be342c1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>7dd73460-a560-4874-886f-78e863a66d49</v>
+      </c>
+      <c r="B3" t="str">
+        <v>INV-1001</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025-10-30</v>
+      </c>
+      <c r="D3" t="str">
+        <v>draft</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>119</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Test invoice</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Net 7</v>
+      </c>
+      <c r="N3" t="str">
+        <v>2025-10-30T16:49:53.497Z</v>
+      </c>
+      <c r="O3" t="str">
+        <v>9194b2d3-dacb-4b03-acbc-7e984c1d9afa</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O3"/>
   </ignoredErrors>
 </worksheet>
 </file>